--- a/medicine/Mort/Cimetière_de_Fontenay-aux-Roses/Cimetière_de_Fontenay-aux-Roses.xlsx
+++ b/medicine/Mort/Cimetière_de_Fontenay-aux-Roses/Cimetière_de_Fontenay-aux-Roses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Fontenay-aux-Roses</t>
+          <t>Cimetière_de_Fontenay-aux-Roses</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Fontenay-aux-Roses est le cimetière communal de Fontenay-aux-Roses dans les Hauts-de-Seine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Fontenay-aux-Roses</t>
+          <t>Cimetière_de_Fontenay-aux-Roses</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Réalisé par l'architecte Claude Naissant en 1850 et de plan rectangulaire avec des allées à angle droit, il présente deux parties : la partie haute la plus ancienne (avec des sépultures remontées de l'ancien cimetière) est ombragée d'arbres, la partie basse reliée par un escalier est moins intéressante d'un point de vue architectural, mais abrite des tombes de plusieurs personnalités. Le cimetière a été agrandi en 1874[1], 1909, 1950 et 1969[2]. En 1919, on y plante un chêne - dit « chêne de la Victoire » - qui domine toujours de ses frondaisons une partie du cimetière. C'est ici qu'est inhumé le dissident russe Andreï Siniavski. Un columbarium est installé depuis 2001.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Réalisé par l'architecte Claude Naissant en 1850 et de plan rectangulaire avec des allées à angle droit, il présente deux parties : la partie haute la plus ancienne (avec des sépultures remontées de l'ancien cimetière) est ombragée d'arbres, la partie basse reliée par un escalier est moins intéressante d'un point de vue architectural, mais abrite des tombes de plusieurs personnalités. Le cimetière a été agrandi en 1874, 1909, 1950 et 1969. En 1919, on y plante un chêne - dit « chêne de la Victoire » - qui domine toujours de ses frondaisons une partie du cimetière. C'est ici qu'est inhumé le dissident russe Andreï Siniavski. Un columbarium est installé depuis 2001.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Fontenay-aux-Roses</t>
+          <t>Cimetière_de_Fontenay-aux-Roses</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>René Barthélemy (1889-1954), ingénieur pionnier de la télévision
 Adolphe Chéruel (1809-1891), historien, professeur de Flaubert
